--- a/ScientificResearch/wwwroot/upload/基础信息/导入期刊/导入期刊模板.xlsx
+++ b/ScientificResearch/wwwroot/upload/基础信息/导入期刊/导入期刊模板.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>代码</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -92,43 +92,55 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>名称(不加书名号;名称或英文刊名至少提供一个)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xxxxyyyy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的历险记</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>期刊集团</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一篇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>英文刊名</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>名称(不加书名号;名称或英文刊名至少提供一个)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>xxxxyyyy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的历险记</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>期刊集团</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中文</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第一篇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>人文</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100</t>
+    <t>PMID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DOI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -136,7 +148,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -156,14 +168,6 @@
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -223,7 +227,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -240,7 +244,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -548,138 +551,150 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U2"/>
+  <dimension ref="A1:X2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="45.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.375" customWidth="1"/>
-    <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.5" customWidth="1"/>
-    <col min="17" max="17" width="13" customWidth="1"/>
+    <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.375" customWidth="1"/>
+    <col min="16" max="16" width="11" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.5" customWidth="1"/>
+    <col min="20" max="20" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9" t="s">
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9" t="s">
+      <c r="K2" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="L2" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="M2" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="N2" s="3">
+        <v>2015</v>
+      </c>
+      <c r="O2" s="4">
+        <v>40179</v>
+      </c>
+      <c r="P2" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="K2" s="3">
-        <v>2015</v>
-      </c>
-      <c r="L2" s="4">
-        <v>40179</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="N2" s="3">
+      <c r="Q2" s="3">
         <v>0.5</v>
       </c>
-      <c r="O2" s="3">
+      <c r="R2" s="3">
         <v>0.1</v>
       </c>
-      <c r="P2" s="3">
+      <c r="S2" s="3">
         <v>100021</v>
       </c>
-      <c r="Q2" s="6">
+      <c r="T2" s="6">
         <v>1001</v>
       </c>
-      <c r="R2" s="3"/>
-      <c r="S2" s="7"/>
-      <c r="T2" s="7"/>
-      <c r="U2" s="7"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="7"/>
+      <c r="W2" s="7"/>
+      <c r="X2" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
